--- a/Output/6_Add_LookupData_Tables_S23.xlsx
+++ b/Output/6_Add_LookupData_Tables_S23.xlsx
@@ -570,7 +570,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OneWSWecycleCode</t>
+          <t>OneWSValorlubIndicator</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -611,7 +611,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OneWSWecycleCode</t>
+          <t>OneWSValorlubIndicator</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -652,7 +652,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>OneWSTypeofBit</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -669,14 +669,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -693,7 +693,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>OneWSTypeofBit</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OneWSPowerCordCable</t>
+          <t>OneWSAvailableAccessoriesInclu</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -775,7 +775,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OneWSPowerCordCable</t>
+          <t>OneWSAvailableAccessoriesInclu</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -898,7 +898,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OneWSOriginofwood</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -915,14 +915,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -939,7 +939,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OneWSOriginofwood</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>Batterysizetypecode</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1021,7 +1021,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>Batterysizetypecode</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>Batterysizetypecode</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>OneWSRecupelCode</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1079,14 +1079,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1103,7 +1103,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>OneWSRecupelCode</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>OneWSRaisedBottomIndicator</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1161,14 +1161,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1185,7 +1185,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>OneWSRaisedBottomIndicator</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OneWSToBeUsedWithHub</t>
+          <t>OneWSAuvibelIndicator</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1267,7 +1267,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OneWSToBeUsedWithHub</t>
+          <t>OneWSAuvibelIndicator</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1308,7 +1308,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1349,7 +1349,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1390,7 +1390,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OneWSRecupelCode</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1407,14 +1407,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1431,7 +1431,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OneWSRecupelCode</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>OneWSAccessoriesAvailable</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1489,14 +1489,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>OneWSAccessoriesAvailable</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OneWSMembraneType</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1571,14 +1571,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1595,7 +1595,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OneWSMembraneType</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1677,7 +1677,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1718,7 +1718,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>OneWSPeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>OneWSPeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OneWSAvailableAccessoriesInclu</t>
+          <t>OneWSBookCoverType</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1841,7 +1841,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OneWSAvailableAccessoriesInclu</t>
+          <t>OneWSBookCoverType</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1882,7 +1882,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OneWSRecytyrecategoryCode</t>
+          <t>OneWSPowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1923,7 +1923,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OneWSRecytyrecategoryCode</t>
+          <t>OneWSPowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1964,7 +1964,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>OneWSWecycleCode</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2005,7 +2005,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>OneWSWecycleCode</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OneWSRecytyreIndicator</t>
+          <t>OneWSSensorAdjustability</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2087,7 +2087,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OneWSRecytyreIndicator</t>
+          <t>OneWSSensorAdjustability</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2128,7 +2128,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OneWSBookCoverType</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2145,14 +2145,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2169,7 +2169,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OneWSBookCoverType</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OneWSSensorAdjustability</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2251,7 +2251,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>OneWSSensorAdjustability</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2333,7 +2333,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2374,7 +2374,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>OneWSFertilizerCategory</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2391,14 +2391,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>OneWSFertilizerCategory</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OneWSLightBulbBaseType</t>
+          <t>OneWSOriginofwood</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2497,7 +2497,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OneWSLightBulbBaseType</t>
+          <t>OneWSOriginofwood</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2538,7 +2538,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>OneWSSoleType</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2555,14 +2555,14 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>OneWSSoleType</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>OneWSQuickConnectIndicator</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2637,14 +2637,14 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2661,7 +2661,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>OneWSQuickConnectIndicator</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>OneWSTypeofStone</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2719,14 +2719,14 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2743,7 +2743,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>OneWSTypeofStone</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2825,7 +2825,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2866,7 +2866,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>OneWSTSACertificateIndicator</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2883,14 +2883,14 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2907,7 +2907,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OneWSTSACertificateIndicator</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OneWSAuvibelIndicator</t>
+          <t>OneWSRecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2989,7 +2989,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OneWSAuvibelIndicator</t>
+          <t>OneWSRecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3030,7 +3030,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3071,7 +3071,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3112,7 +3112,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3153,7 +3153,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3194,7 +3194,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3235,7 +3235,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3276,7 +3276,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>OneWSPoEIndicator</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3293,14 +3293,14 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3317,7 +3317,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>OneWSPoEIndicator</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>OneWSTypeofGame</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3399,7 +3399,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>OneWSTypeofGame</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3440,7 +3440,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>OneWSToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3457,14 +3457,14 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3481,7 +3481,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>OneWSToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OneWSBindingType</t>
+          <t>OneWSLightBulbBaseType</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3563,7 +3563,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>OneWSBindingType</t>
+          <t>OneWSLightBulbBaseType</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3604,7 +3604,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OneWSFoundationNeededIndicator</t>
+          <t>OneWSMembraneType</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3645,7 +3645,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OneWSFoundationNeededIndicator</t>
+          <t>OneWSMembraneType</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3686,7 +3686,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3727,7 +3727,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3768,7 +3768,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Batterysizetypecode</t>
+          <t>OneWSTSACertificateIndicator</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3785,14 +3785,14 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3809,7 +3809,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Batterysizetypecode</t>
+          <t>OneWSTSACertificateIndicator</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Batterysizetypecode</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>OneWSTypeofGame</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3867,14 +3867,14 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3891,7 +3891,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>OneWSTypeofGame</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3932,7 +3932,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>OneWSRaisedBottomIndicator</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3949,14 +3949,14 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3973,7 +3973,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OneWSRaisedBottomIndicator</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>AccessoriesAvailable</t>
+          <t>OneWSPowerCordCable</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4031,14 +4031,14 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4055,7 +4055,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AccessoriesAvailable</t>
+          <t>OneWSPowerCordCable</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AccessoriesAvailable</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4096,7 +4096,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>OneWSTypeofBit</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4113,14 +4113,14 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4137,7 +4137,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>OneWSTypeofBit</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>OneWSLightingAccessoriesInclud</t>
+          <t>OneWSRecytyreIndicator</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4219,7 +4219,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>OneWSLightingAccessoriesInclud</t>
+          <t>OneWSRecytyreIndicator</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4260,7 +4260,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>OneWSTypeofLightSourceIncluded</t>
+          <t>AccessoriesAvailable</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4277,14 +4277,14 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4301,7 +4301,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>OneWSTypeofLightSourceIncluded</t>
+          <t>AccessoriesAvailable</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AccessoriesAvailable</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>OneWSFertilizerCategory</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4359,14 +4359,14 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -4383,7 +4383,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OneWSFertilizerCategory</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>OneWSGlassFixingType</t>
+          <t>OneWSBindingType</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4465,7 +4465,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>OneWSGlassFixingType</t>
+          <t>OneWSBindingType</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4506,7 +4506,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>OneWSSoleType</t>
+          <t>OneWSLightingAccessoriesInclud</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4547,7 +4547,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>OneWSSoleType</t>
+          <t>OneWSLightingAccessoriesInclud</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4588,7 +4588,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4629,7 +4629,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4670,7 +4670,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>OneWSQuickConnectIndicator</t>
+          <t>OneWSTypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4711,7 +4711,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>OneWSQuickConnectIndicator</t>
+          <t>OneWSTypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4752,7 +4752,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>OneWSTypeofStone</t>
+          <t>OneWSFoundationNeededIndicator</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4793,7 +4793,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>OneWSTypeofStone</t>
+          <t>OneWSFoundationNeededIndicator</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4834,7 +4834,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>OneWSAccessoriesAvailable</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4851,14 +4851,14 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -4875,7 +4875,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>OneWSAccessoriesAvailable</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>OneWSPeriodofUpdateSupport</t>
+          <t>OneWSGlassFixingType</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4957,7 +4957,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>OneWSPeriodofUpdateSupport</t>
+          <t>OneWSGlassFixingType</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4998,7 +4998,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>OneWSValorlubIndicator</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5015,14 +5015,14 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -5039,7 +5039,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>OneWSValorlubIndicator</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>OneWSPowerSupplyTypecode</t>
+          <t>OneWSPoEIndicator</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5121,7 +5121,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>OneWSPowerSupplyTypecode</t>
+          <t>OneWSPoEIndicator</t>
         </is>
       </c>
       <c r="E113" t="n">

--- a/Output/6_Add_LookupData_Tables_S23.xlsx
+++ b/Output/6_Add_LookupData_Tables_S23.xlsx
@@ -570,7 +570,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OneWSValorlubIndicator</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -587,14 +587,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OneWSValorlubIndicator</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -619,7 +619,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>FertilizerCategory</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OneWSTypeofBit</t>
+          <t>OneWSRecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -693,7 +693,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OneWSTypeofBit</t>
+          <t>OneWSRecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -734,7 +734,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OneWSAvailableAccessoriesInclu</t>
+          <t>OneWSBookCoverType</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -775,7 +775,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OneWSAvailableAccessoriesInclu</t>
+          <t>OneWSBookCoverType</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -816,7 +816,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Originofwood</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -857,7 +857,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Originofwood</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Originofwood</t>
+          <t>TypeofStone</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -898,7 +898,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -939,7 +939,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LightBulbBaseType</t>
+          <t>LightingAccessoriesIncluded</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OneWSRecupelCode</t>
+          <t>OneWSRecytyreIndicator</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1103,7 +1103,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OneWSRecupelCode</t>
+          <t>OneWSRecytyreIndicator</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1144,7 +1144,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OneWSRaisedBottomIndicator</t>
+          <t>OneWSWecycleCode</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1185,7 +1185,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OneWSRaisedBottomIndicator</t>
+          <t>OneWSWecycleCode</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1226,7 +1226,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OneWSAuvibelIndicator</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1243,14 +1243,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1267,7 +1267,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OneWSAuvibelIndicator</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>RecytyrecategoryCode</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>OneWSSensorAdjustability</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1325,14 +1325,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1349,7 +1349,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>OneWSSensorAdjustability</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ToBeUsedWithHub</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>OneWSFoundationNeededIndicator</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1407,14 +1407,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1431,7 +1431,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>OneWSFoundationNeededIndicator</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RecupelCode</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OneWSAccessoriesAvailable</t>
+          <t>OneWSAvailableAccessoriesInclu</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1513,7 +1513,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OneWSAccessoriesAvailable</t>
+          <t>OneWSAvailableAccessoriesInclu</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1554,7 +1554,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Originofwood</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1595,7 +1595,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Originofwood</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PowerSupplyTypecode</t>
+          <t>Originofwood</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1636,7 +1636,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1677,7 +1677,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TypeofStone</t>
+          <t>TypeofBit</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1718,7 +1718,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OneWSPeriodofUpdateSupport</t>
+          <t>OneWSTypeofStone</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1759,7 +1759,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OneWSPeriodofUpdateSupport</t>
+          <t>OneWSTypeofStone</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1800,7 +1800,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OneWSBookCoverType</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1817,14 +1817,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1841,7 +1841,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OneWSBookCoverType</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PowerCordCable</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OneWSPowerSupplyTypecode</t>
+          <t>OneWSQuickConnectIndicator</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1923,7 +1923,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OneWSPowerSupplyTypecode</t>
+          <t>OneWSQuickConnectIndicator</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1964,7 +1964,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OneWSWecycleCode</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2005,7 +2005,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OneWSWecycleCode</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>BindingType</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OneWSSensorAdjustability</t>
+          <t>OneWSFertilizerCategory</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2087,7 +2087,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OneWSSensorAdjustability</t>
+          <t>OneWSFertilizerCategory</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2128,7 +2128,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>OneWSRaisedBottomIndicator</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2145,14 +2145,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2169,7 +2169,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>OneWSRaisedBottomIndicator</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PeriodofUpdateSupport</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>OneWSPowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2251,7 +2251,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>OneWSPowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MembraneType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>OneWSLightingAccessoriesInclud</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2309,14 +2309,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>OneWSLightingAccessoriesInclud</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Colourcodesystem</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OneWSFertilizerCategory</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2391,14 +2391,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OneWSFertilizerCategory</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>RecupelCode</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OneWSOriginofwood</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2473,14 +2473,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2497,7 +2497,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OneWSOriginofwood</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AvailableAccessoriesIncluded</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OneWSSoleType</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2555,14 +2555,14 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OneWSSoleType</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>LightBulbBaseType</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OneWSQuickConnectIndicator</t>
+          <t>OneWSMembraneType</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2661,7 +2661,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OneWSQuickConnectIndicator</t>
+          <t>OneWSMembraneType</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2702,7 +2702,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OneWSTypeofStone</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2719,14 +2719,14 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2743,7 +2743,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>OneWSTypeofStone</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>WecycleCode</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>OneWSToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2801,14 +2801,14 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2825,7 +2825,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>OneWSToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BindingType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>OneWSBindingType</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2883,14 +2883,14 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2907,7 +2907,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>OneWSBindingType</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PowerCordCable</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OneWSRecytyrecategoryCode</t>
+          <t>OneWSOriginofwood</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2989,7 +2989,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OneWSRecytyrecategoryCode</t>
+          <t>OneWSOriginofwood</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3030,7 +3030,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3071,7 +3071,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RecytyrecategoryCode</t>
+          <t>TypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3112,7 +3112,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>OneWSAccessoriesAvailable</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3129,14 +3129,14 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>OneWSAccessoriesAvailable</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FertilizerCategory</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3194,7 +3194,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3235,7 +3235,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TypeofGame</t>
+          <t>ToBeUsedWithHub</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3276,7 +3276,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3317,7 +3317,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AvailableAccessoriesIncluded</t>
+          <t>GlassFixingType</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3358,7 +3358,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>OneWSTypeofGame</t>
+          <t>OneWSGlassFixingType</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3399,7 +3399,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OneWSTypeofGame</t>
+          <t>OneWSGlassFixingType</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3440,7 +3440,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OneWSToBeUsedWithHub</t>
+          <t>OneWSSoleType</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3481,7 +3481,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>OneWSToBeUsedWithHub</t>
+          <t>OneWSSoleType</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3522,7 +3522,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OneWSLightBulbBaseType</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3539,14 +3539,14 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3563,7 +3563,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>OneWSLightBulbBaseType</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Colourcodesystem</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OneWSMembraneType</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3621,14 +3621,14 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3645,7 +3645,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OneWSMembraneType</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>MembraneType</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3727,7 +3727,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WecycleCode</t>
+          <t>PeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3768,7 +3768,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OneWSTSACertificateIndicator</t>
+          <t>OneWSPoEIndicator</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3809,7 +3809,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>OneWSTSACertificateIndicator</t>
+          <t>OneWSPoEIndicator</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3850,7 +3850,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>OneWSLightBulbBaseType</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3867,14 +3867,14 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3891,7 +3891,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>OneWSLightBulbBaseType</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SensorAdjustability</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3932,7 +3932,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3973,7 +3973,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>GlassFixingType</t>
+          <t>SoleType</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4014,7 +4014,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>OneWSPowerCordCable</t>
+          <t>OneWSTypeofBit</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4055,7 +4055,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>OneWSPowerCordCable</t>
+          <t>OneWSTypeofBit</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4096,7 +4096,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>OneWSPowerCordCable</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4113,14 +4113,14 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4137,7 +4137,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>OneWSPowerCordCable</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>BookCoverType</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>OneWSRecytyreIndicator</t>
+          <t>OneWSAuvibelIndicator</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4219,7 +4219,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>OneWSRecytyreIndicator</t>
+          <t>OneWSAuvibelIndicator</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4342,7 +4342,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4383,7 +4383,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>SoleType</t>
+          <t>BookCoverType</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4424,7 +4424,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>OneWSBindingType</t>
+          <t>OneWSRecupelCode</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4465,7 +4465,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>OneWSBindingType</t>
+          <t>OneWSRecupelCode</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4506,7 +4506,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>OneWSLightingAccessoriesInclud</t>
+          <t>OneWSTypeofGame</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4547,7 +4547,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>OneWSLightingAccessoriesInclud</t>
+          <t>OneWSTypeofGame</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4588,7 +4588,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>OneWSValorlubIndicator</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4605,14 +4605,14 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -4629,7 +4629,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>OneWSValorlubIndicator</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TypeofBit</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>OneWSTypeofLightSourceIncluded</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4687,14 +4687,14 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -4711,7 +4711,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>OneWSTypeofLightSourceIncluded</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>TypeofGame</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>OneWSFoundationNeededIndicator</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4769,14 +4769,14 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -4793,7 +4793,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>OneWSFoundationNeededIndicator</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>PowerSupplyTypecode</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>OneWSTypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4851,14 +4851,14 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -4875,7 +4875,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>OneWSTypeofLightSourceIncluded</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>LightingAccessoriesIncluded</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>OneWSGlassFixingType</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4933,14 +4933,14 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -4957,7 +4957,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>OneWSGlassFixingType</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>SensorAdjustability</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4998,7 +4998,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>OneWSPeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5015,14 +5015,14 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -5039,7 +5039,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>OneWSPeriodofUpdateSupport</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TypeofLightSourceIncluded</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>OneWSPoEIndicator</t>
+          <t>OneWSTSACertificateIndicator</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5121,7 +5121,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>OneWSPoEIndicator</t>
+          <t>OneWSTSACertificateIndicator</t>
         </is>
       </c>
       <c r="E113" t="n">
